--- a/ProjectTime.xlsx
+++ b/ProjectTime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haniff\Documents\GeneralProgramming\Diversified_Projects\AllPicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8F53D14-BEF4-4DD6-8B6C-F02546D9B251}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9E9A61D6-157D-42B8-AF04-4F83497E37F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>Project</t>
   </si>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -904,6 +904,61 @@
         <v>1.4895833333333332E-2</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="6">
+        <v>43334</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.5208333333333333E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="6">
+        <v>43338</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.7835648148148151E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="6">
+        <v>43340</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1.892361111111111E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="6">
+        <v>43344</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2.6041666666666668E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="6">
+        <v>43346</v>
+      </c>
+      <c r="C46" s="5">
+        <v>3.349537037037037E-2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C15">
     <sortCondition descending="1" ref="C2:C15"/>

--- a/ProjectTime.xlsx
+++ b/ProjectTime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haniff\Documents\GeneralProgramming\Diversified_Projects\AllPicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9E9A61D6-157D-42B8-AF04-4F83497E37F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F978024F-83D6-499C-9FF5-7F3A6A05833F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>Project</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>SpotifyPlayGen</t>
+  </si>
+  <si>
+    <t>FlaskMegaTut</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -959,6 +962,50 @@
         <v>3.349537037037037E-2</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="6">
+        <v>43351</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4.8078703703703707E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="6">
+        <v>43351</v>
+      </c>
+      <c r="C48" s="5">
+        <v>4.5231481481481484E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="6">
+        <v>43354</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2.2210648148148149E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="6">
+        <v>43355</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2.5381944444444443E-2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C15">
     <sortCondition descending="1" ref="C2:C15"/>

--- a/ProjectTime.xlsx
+++ b/ProjectTime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haniff\Documents\GeneralProgramming\Diversified_Projects\AllPicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F978024F-83D6-499C-9FF5-7F3A6A05833F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EBE19A-976D-478C-9F15-93F80C6AE891}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>Project</t>
   </si>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1006,6 +1006,50 @@
         <v>2.5381944444444443E-2</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="6">
+        <v>43361</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1.8298611111111113E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="6">
+        <v>43364</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2.193287037037037E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="6">
+        <v>43371</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1.0381944444444444E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="6">
+        <v>43373</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C15">
     <sortCondition descending="1" ref="C2:C15"/>

--- a/ProjectTime.xlsx
+++ b/ProjectTime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haniff\Documents\GeneralProgramming\Diversified_Projects\AllPicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EBE19A-976D-478C-9F15-93F80C6AE891}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84EE571-00BB-43C2-8D9F-D0A3A4999658}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <si>
     <t>Project</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>FlaskMegaTut</t>
+  </si>
+  <si>
+    <t>Octoparse</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1050,6 +1053,22 @@
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="6">
+        <v>43378</v>
+      </c>
+      <c r="C55" s="5">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C15">
     <sortCondition descending="1" ref="C2:C15"/>

--- a/ProjectTime.xlsx
+++ b/ProjectTime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haniff\Documents\GeneralProgramming\Diversified_Projects\AllPicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84EE571-00BB-43C2-8D9F-D0A3A4999658}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25197AB8-CCEB-4592-810A-CA0459C98A3B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$41</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913" iterateCount="500" iterateDelta="9.9999999999999995E-7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>Project</t>
   </si>
@@ -37,31 +37,16 @@
     <t>CUDAproject</t>
   </si>
   <si>
-    <t>DjangoClass</t>
-  </si>
-  <si>
     <t>FindYourJoy</t>
   </si>
   <si>
     <t>GoogleCrashCourse</t>
   </si>
   <si>
-    <t>KaggleLearn</t>
-  </si>
-  <si>
-    <t>MVCClass</t>
-  </si>
-  <si>
-    <t>PyCurator</t>
-  </si>
-  <si>
     <t>VueClass</t>
   </si>
   <si>
     <t>TrollSniffer</t>
-  </si>
-  <si>
-    <t>SpecCurator</t>
   </si>
   <si>
     <t>ZeroToDeepLearn</t>
@@ -134,14 +119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -446,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -483,596 +467,437 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>43168</v>
+        <v>43225</v>
       </c>
       <c r="C3" s="3">
-        <v>3.4722222222222224E-2</v>
+        <v>2.6493055555555558E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>43225</v>
+        <v>43159</v>
       </c>
       <c r="C4" s="3">
-        <v>2.6493055555555558E-2</v>
+        <v>2.0902777777777781E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4">
-        <v>43259</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.5439814814814814E-2</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43171</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0381944444444446E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>43198</v>
+        <v>43159</v>
       </c>
       <c r="C6" s="3">
-        <v>2.4189814814814817E-2</v>
+        <v>1.7754629629629631E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43159</v>
+        <v>43220</v>
       </c>
       <c r="C7" s="3">
-        <v>2.0902777777777781E-2</v>
+        <v>1.1828703703703704E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43171</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2.0381944444444446E-2</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43266</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.6770833333333332E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>43159</v>
+        <v>43270</v>
       </c>
       <c r="C9" s="3">
-        <v>1.7754629629629631E-2</v>
+        <v>2.5405092592592594E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>43191</v>
+        <v>43274</v>
       </c>
       <c r="C10" s="3">
-        <v>1.7106481481481483E-2</v>
+        <v>2.2905092592592591E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>43267</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1.6643518518518519E-2</v>
+        <v>43275</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.2222222222222223E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>43215</v>
+        <v>43277</v>
       </c>
       <c r="C12" s="3">
-        <v>1.4687499999999999E-2</v>
+        <v>1.6932870370370369E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>43218.014120370368</v>
+        <v>43278</v>
       </c>
       <c r="C13" s="3">
-        <v>1.4120370370370368E-2</v>
+        <v>2.4305555555555556E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43220</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.1828703703703704E-2</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43285</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.4201388888888887E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>43266</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1.6770833333333332E-2</v>
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43286</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2.1400462962962965E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
-        <v>43270</v>
+        <v>43288</v>
       </c>
       <c r="C16" s="3">
-        <v>2.5405092592592594E-2</v>
+        <v>2.1527777777777781E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>43272</v>
+        <v>43292</v>
       </c>
       <c r="C17" s="3">
-        <v>3.1469907407407412E-2</v>
+        <v>2.359953703703704E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>43274</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2.2905092592592591E-2</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43301</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3.0324074074074073E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2">
-        <v>43275</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2.2222222222222223E-2</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43303</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3.1805555555555552E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
-        <v>43276</v>
+        <v>43305</v>
       </c>
       <c r="C20" s="3">
-        <v>1.7384259259259262E-2</v>
+        <v>2.9166666666666664E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2">
-        <v>43277</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.6932870370370369E-2</v>
+        <v>8</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43306</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.7893518518518515E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2">
-        <v>43278</v>
+        <v>43310</v>
       </c>
       <c r="C22" s="3">
-        <v>2.4305555555555556E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="2">
-        <v>43280</v>
-      </c>
-      <c r="C23" s="3">
-        <v>7.407407407407407E-4</v>
+      <c r="B23" s="5">
+        <v>43312</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.4918981481481483E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1.834490740740741E-2</v>
+        <v>9</v>
+      </c>
+      <c r="B24" s="5">
+        <v>43314</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.990740740740741E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="6">
-        <v>43285</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2.4201388888888887E-2</v>
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <v>43316</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.7731481481481484E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2">
-        <v>43286</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2.1400462962962965E-2</v>
+        <v>9</v>
+      </c>
+      <c r="B26" s="5">
+        <v>43317</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2.2361111111111113E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2">
-        <v>43288</v>
+        <v>43318</v>
       </c>
       <c r="C27" s="3">
-        <v>2.1527777777777781E-2</v>
+        <v>2.0173611111111111E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="4">
-        <v>43290</v>
-      </c>
-      <c r="C28" s="5">
-        <v>8.1944444444444452E-3</v>
+        <v>9</v>
+      </c>
+      <c r="B28" s="5">
+        <v>43334</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2.5208333333333333E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2">
-        <v>43292</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2.359953703703704E-2</v>
+        <v>8</v>
+      </c>
+      <c r="B29" s="5">
+        <v>43338</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2.7835648148148151E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="2">
-        <v>43299</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1.8310185185185186E-2</v>
+      <c r="B30" s="5">
+        <v>43340</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.892361111111111E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="6">
-        <v>43301</v>
-      </c>
-      <c r="C31" s="5">
-        <v>3.0324074074074073E-2</v>
+        <v>3</v>
+      </c>
+      <c r="B31" s="5">
+        <v>43344</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2.6041666666666668E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="6">
-        <v>43303</v>
-      </c>
-      <c r="C32" s="5">
-        <v>3.1805555555555552E-2</v>
+        <v>9</v>
+      </c>
+      <c r="B32" s="5">
+        <v>43346</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3.349537037037037E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2">
-        <v>43305</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2.9166666666666664E-2</v>
+        <v>10</v>
+      </c>
+      <c r="B33" s="5">
+        <v>43351</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4.8078703703703707E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="6">
-        <v>43306</v>
-      </c>
-      <c r="C34" s="5">
-        <v>2.7893518518518515E-2</v>
+        <v>10</v>
+      </c>
+      <c r="B34" s="5">
+        <v>43351</v>
+      </c>
+      <c r="C34" s="4">
+        <v>4.5231481481481484E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2">
-        <v>43310</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3.3333333333333333E-2</v>
+        <v>10</v>
+      </c>
+      <c r="B35" s="5">
+        <v>43354</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2.2210648148148149E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="6">
-        <v>43312</v>
-      </c>
-      <c r="C36" s="5">
-        <v>2.4918981481481483E-2</v>
+        <v>10</v>
+      </c>
+      <c r="B36" s="5">
+        <v>43355</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2.5381944444444443E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="6">
-        <v>43314</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2.990740740740741E-2</v>
+        <v>10</v>
+      </c>
+      <c r="B37" s="5">
+        <v>43361</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1.8298611111111113E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="6">
-        <v>43316</v>
-      </c>
-      <c r="C38" s="5">
-        <v>3.7731481481481484E-2</v>
+        <v>10</v>
+      </c>
+      <c r="B38" s="5">
+        <v>43364</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2.193287037037037E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="6">
-        <v>43317</v>
-      </c>
-      <c r="C39" s="5">
-        <v>2.2361111111111113E-2</v>
+        <v>6</v>
+      </c>
+      <c r="B39" s="5">
+        <v>43371</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.0381944444444444E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="2">
-        <v>43318</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2.0173611111111111E-2</v>
+        <v>10</v>
+      </c>
+      <c r="B40" s="5">
+        <v>43378</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3.4722222222222224E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="6">
-        <v>43322</v>
-      </c>
-      <c r="C41" s="5">
-        <v>1.4895833333333332E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="6">
-        <v>43334</v>
-      </c>
-      <c r="C42" s="5">
-        <v>2.5208333333333333E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="6">
-        <v>43338</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2.7835648148148151E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="6">
-        <v>43340</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1.892361111111111E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="6">
-        <v>43344</v>
-      </c>
-      <c r="C45" s="5">
-        <v>2.6041666666666668E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="6">
-        <v>43346</v>
-      </c>
-      <c r="C46" s="5">
-        <v>3.349537037037037E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="6">
-        <v>43351</v>
-      </c>
-      <c r="C47" s="5">
-        <v>4.8078703703703707E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="6">
-        <v>43351</v>
-      </c>
-      <c r="C48" s="5">
-        <v>4.5231481481481484E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="6">
-        <v>43354</v>
-      </c>
-      <c r="C49" s="5">
-        <v>2.2210648148148149E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="6">
-        <v>43355</v>
-      </c>
-      <c r="C50" s="5">
-        <v>2.5381944444444443E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="6">
-        <v>43361</v>
-      </c>
-      <c r="C51" s="5">
-        <v>1.8298611111111113E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="6">
-        <v>43364</v>
-      </c>
-      <c r="C52" s="5">
-        <v>2.193287037037037E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="6">
-        <v>43371</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1.0381944444444444E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="6">
-        <v>43373</v>
-      </c>
-      <c r="C54" s="5">
-        <v>2.0833333333333333E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="6">
-        <v>43378</v>
-      </c>
-      <c r="C55" s="5">
-        <v>3.4722222222222224E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B41" s="5">
+        <v>43380</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.7916666666666668E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C15">
-    <sortCondition descending="1" ref="C2:C15"/>
-    <sortCondition ref="A2:A15"/>
+  <sortState ref="A2:C8">
+    <sortCondition descending="1" ref="C2:C8"/>
+    <sortCondition ref="A2:A8"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProjectTime.xlsx
+++ b/ProjectTime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haniff\Documents\GeneralProgramming\Diversified_Projects\AllPicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25197AB8-CCEB-4592-810A-CA0459C98A3B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4F974-3FBD-42B7-95D8-0F3567E6D192}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>Project</t>
   </si>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -894,6 +894,17 @@
         <v>1.7916666666666668E-2</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="5">
+        <v>43384</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C8">
     <sortCondition descending="1" ref="C2:C8"/>
